--- a/data/trans_dic/P33A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33A-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.8442334678665948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7419283721489717</v>
+        <v>0.7419283721489718</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.7222088018035259</v>
@@ -655,7 +655,7 @@
         <v>0.7242332160500921</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.627702079513575</v>
+        <v>0.6277020795135752</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.7811019020533156</v>
@@ -664,7 +664,7 @@
         <v>0.7762130586839207</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.6750779530755638</v>
+        <v>0.6750779530755642</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8357265568139275</v>
+        <v>0.8389162137471676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8154555459191336</v>
+        <v>0.8156321097332672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7079996272655338</v>
+        <v>0.7070781675332389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6938794009430171</v>
+        <v>0.694695881842385</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6939908303776998</v>
+        <v>0.695325914657741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5984829724148815</v>
+        <v>0.6023367741960666</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7627159886562417</v>
+        <v>0.7630735612960455</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7546120252377231</v>
+        <v>0.7558867137652248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6551754182855438</v>
+        <v>0.6550344868997902</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8816982703286022</v>
+        <v>0.8824943622136231</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8689290636406762</v>
+        <v>0.8690043187865437</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7709355928010672</v>
+        <v>0.776536216097816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7461689596628226</v>
+        <v>0.7477056814905976</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7535324675626076</v>
+        <v>0.7558690115030823</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6527951528259541</v>
+        <v>0.6535154253608555</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7981640549548465</v>
+        <v>0.7983881652503638</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.797006484916488</v>
+        <v>0.7981936665997704</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6979386025868134</v>
+        <v>0.6950797880571397</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8401134053282199</v>
+        <v>0.8405590047905679</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8343484085288381</v>
+        <v>0.8336579540806398</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8349689924125945</v>
+        <v>0.835509968466749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7072211348019897</v>
+        <v>0.706272454980944</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7324863414527879</v>
+        <v>0.7311330132395837</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.748630399856183</v>
+        <v>0.7477251777157222</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7842177565855925</v>
+        <v>0.7836816023040875</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7900383264824219</v>
+        <v>0.7896004953947739</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7961562759277502</v>
+        <v>0.7952284630156887</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8734439652964872</v>
+        <v>0.8735473921751191</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8668354747378586</v>
+        <v>0.8661786591724003</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8674315435253115</v>
+        <v>0.8663788806524622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.751837813139711</v>
+        <v>0.7525961395812414</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7708811319684759</v>
+        <v>0.7711973989936408</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7818555742271414</v>
+        <v>0.7831551433656427</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8105095390350028</v>
+        <v>0.810540421074799</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.815884918885164</v>
+        <v>0.8153985100111493</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8192070229736507</v>
+        <v>0.8194048655557101</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.7021559458550485</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7886427234611075</v>
+        <v>0.7886427234611074</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7809024986886337</v>
@@ -882,7 +882,7 @@
         <v>0.7528648104883107</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.8085601966252186</v>
+        <v>0.8085601966252188</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7450147959897809</v>
+        <v>0.7469609905869571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7628018086868938</v>
+        <v>0.7635366408370503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7950113983210034</v>
+        <v>0.7977960416829105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7333348855711614</v>
+        <v>0.7301009220903897</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6576818890375583</v>
+        <v>0.661485582940544</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7610830580575434</v>
+        <v>0.7604134500981327</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7521543962101908</v>
+        <v>0.7506943977355202</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7253212572098797</v>
+        <v>0.7248003239533509</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7869241175329073</v>
+        <v>0.7879947638804433</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8253870480679422</v>
+        <v>0.8248083613935092</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.835708512760916</v>
+        <v>0.8392947333845883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8589341151188976</v>
+        <v>0.8555149401274322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8104296741676752</v>
+        <v>0.8116786019634051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7408574237548798</v>
+        <v>0.740203456569187</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8157243040034123</v>
+        <v>0.8134022370988512</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8076386531524234</v>
+        <v>0.8080738398428646</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.780606906543718</v>
+        <v>0.7803514308708268</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8307143628670903</v>
+        <v>0.8295050911765645</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.84159225362002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8285945162890662</v>
+        <v>0.8285945162890663</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.7330015648716827</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8374037486886838</v>
+        <v>0.8372326254877895</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8292205145468113</v>
+        <v>0.8283767023349979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8156558734293931</v>
+        <v>0.8141888380991239</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.71877934417608</v>
+        <v>0.7164072945142294</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7201242925439666</v>
+        <v>0.7223921524138662</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7271907498070869</v>
+        <v>0.7262299444471605</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7800900698202355</v>
+        <v>0.7794203780816267</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7778530807629731</v>
+        <v>0.7787622365738334</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7735662279859946</v>
+        <v>0.7734990626834028</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8618573209464709</v>
+        <v>0.8615400459067496</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8533910606919015</v>
+        <v>0.8539915138014406</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8427970468234233</v>
+        <v>0.8420621476230298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.747719177371084</v>
+        <v>0.7489340701277497</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7504713091469476</v>
+        <v>0.7519593166616367</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7533133383215563</v>
+        <v>0.7506241617291176</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7996795081138764</v>
+        <v>0.7996670302102037</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7988425962422829</v>
+        <v>0.7986743960432816</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7928490982585297</v>
+        <v>0.7919636505493237</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>809483</v>
+        <v>812573</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>607328</v>
+        <v>607459</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>408897</v>
+        <v>408365</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>922413</v>
+        <v>923499</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>676364</v>
+        <v>677665</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>487730</v>
+        <v>490870</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1752687</v>
+        <v>1753509</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1297459</v>
+        <v>1299650</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>912319</v>
+        <v>912123</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>854011</v>
+        <v>854782</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>647153</v>
+        <v>647209</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>445245</v>
+        <v>448479</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>991925</v>
+        <v>993968</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>734393</v>
+        <v>736671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>531991</v>
+        <v>532578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1834145</v>
+        <v>1834660</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1370351</v>
+        <v>1372392</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>971866</v>
+        <v>967885</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1636740</v>
+        <v>1637608</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1713279</v>
+        <v>1711862</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1852239</v>
+        <v>1853439</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1231048</v>
+        <v>1229396</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1444845</v>
+        <v>1442176</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1614752</v>
+        <v>1612799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2892917</v>
+        <v>2890939</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3180659</v>
+        <v>3178896</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3483402</v>
+        <v>3479342</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1701676</v>
+        <v>1701877</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1779989</v>
+        <v>1778641</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1924252</v>
+        <v>1921917</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1308711</v>
+        <v>1310031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1520580</v>
+        <v>1521204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1686416</v>
+        <v>1689219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>2989905</v>
+        <v>2990019</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3284716</v>
+        <v>3282758</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3584255</v>
+        <v>3585121</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>355973</v>
+        <v>356902</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>414070</v>
+        <v>414469</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>562795</v>
+        <v>564766</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>335614</v>
+        <v>334134</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>354090</v>
+        <v>356138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>554671</v>
+        <v>554183</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>703611</v>
+        <v>702245</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>784230</v>
+        <v>783667</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1130574</v>
+        <v>1132112</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>394375</v>
+        <v>394098</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>453646</v>
+        <v>455593</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>608046</v>
+        <v>605626</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>370897</v>
+        <v>371469</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>398871</v>
+        <v>398519</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>594493</v>
+        <v>592801</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>755514</v>
+        <v>755922</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>844006</v>
+        <v>843730</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1193487</v>
+        <v>1191750</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2842684</v>
+        <v>2842103</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2770452</v>
+        <v>2767633</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2857878</v>
+        <v>2852738</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2535634</v>
+        <v>2527266</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2510003</v>
+        <v>2517908</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2691097</v>
+        <v>2687542</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5400046</v>
+        <v>5395410</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5310049</v>
+        <v>5316255</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>5573123</v>
+        <v>5572639</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2925695</v>
+        <v>2924618</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2851207</v>
+        <v>2853213</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2952975</v>
+        <v>2950400</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2637725</v>
+        <v>2642011</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2615778</v>
+        <v>2620965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2787769</v>
+        <v>2777817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5535650</v>
+        <v>5535564</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5453335</v>
+        <v>5452187</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5712046</v>
+        <v>5705666</v>
       </c>
     </row>
     <row r="20">
